--- a/SchedulingData/dynamic14/pso/scheduling2_11.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,173 +462,173 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>225.84</v>
+        <v>210.1</v>
       </c>
       <c r="D2" t="n">
-        <v>277.18</v>
+        <v>264.52</v>
       </c>
       <c r="E2" t="n">
-        <v>11.492</v>
+        <v>11.728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>227.9</v>
+        <v>255.42</v>
       </c>
       <c r="D3" t="n">
-        <v>314.92</v>
+        <v>336.18</v>
       </c>
       <c r="E3" t="n">
-        <v>8.348000000000001</v>
+        <v>12.012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>227.92</v>
+        <v>264.52</v>
       </c>
       <c r="D4" t="n">
-        <v>280.12</v>
+        <v>335.36</v>
       </c>
       <c r="E4" t="n">
-        <v>13.528</v>
+        <v>8.244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>243.92</v>
+        <v>336.18</v>
       </c>
       <c r="D5" t="n">
-        <v>318.92</v>
+        <v>389.42</v>
       </c>
       <c r="E5" t="n">
-        <v>12.748</v>
+        <v>9.308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>280.12</v>
+        <v>210.12</v>
       </c>
       <c r="D6" t="n">
-        <v>341.62</v>
+        <v>253.62</v>
       </c>
       <c r="E6" t="n">
-        <v>9.507999999999999</v>
+        <v>16.128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>341.62</v>
+        <v>242.8</v>
       </c>
       <c r="D7" t="n">
-        <v>415.84</v>
+        <v>322.1</v>
       </c>
       <c r="E7" t="n">
-        <v>5.196</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>277.18</v>
+        <v>204.92</v>
       </c>
       <c r="D8" t="n">
-        <v>332.68</v>
+        <v>259.88</v>
       </c>
       <c r="E8" t="n">
-        <v>7.072</v>
+        <v>16.552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>240.36</v>
+        <v>389.42</v>
       </c>
       <c r="D9" t="n">
-        <v>293.06</v>
+        <v>441.52</v>
       </c>
       <c r="E9" t="n">
-        <v>15.824</v>
+        <v>6.228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>241.44</v>
+        <v>218.42</v>
       </c>
       <c r="D10" t="n">
-        <v>294.14</v>
+        <v>303.3</v>
       </c>
       <c r="E10" t="n">
-        <v>12.256</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="11">
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>294.14</v>
+        <v>253.62</v>
       </c>
       <c r="D11" t="n">
-        <v>349.94</v>
+        <v>309.86</v>
       </c>
       <c r="E11" t="n">
-        <v>9.295999999999999</v>
+        <v>12.124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>293.06</v>
+        <v>303.3</v>
       </c>
       <c r="D12" t="n">
-        <v>346.5</v>
+        <v>373.8</v>
       </c>
       <c r="E12" t="n">
-        <v>13.12</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>332.68</v>
+        <v>322.1</v>
       </c>
       <c r="D13" t="n">
-        <v>387.68</v>
+        <v>381.26</v>
       </c>
       <c r="E13" t="n">
-        <v>3.692</v>
+        <v>8.564</v>
       </c>
     </row>
     <row r="14">
@@ -694,71 +694,71 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>415.84</v>
+        <v>441.52</v>
       </c>
       <c r="D14" t="n">
-        <v>472.22</v>
+        <v>475.22</v>
       </c>
       <c r="E14" t="n">
-        <v>1.668</v>
+        <v>3.988</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>472.22</v>
+        <v>335.36</v>
       </c>
       <c r="D15" t="n">
-        <v>565.38</v>
+        <v>383.38</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>5.072</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>387.68</v>
+        <v>475.22</v>
       </c>
       <c r="D16" t="n">
-        <v>436.14</v>
+        <v>580.78</v>
       </c>
       <c r="E16" t="n">
-        <v>0.956</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>436.14</v>
+        <v>580.78</v>
       </c>
       <c r="D17" t="n">
-        <v>525.9299999999999</v>
+        <v>662.66</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
@@ -770,74 +770,74 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>314.92</v>
+        <v>383.38</v>
       </c>
       <c r="D18" t="n">
-        <v>360.22</v>
+        <v>419.38</v>
       </c>
       <c r="E18" t="n">
-        <v>5.948</v>
+        <v>2.112</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>318.92</v>
+        <v>419.38</v>
       </c>
       <c r="D19" t="n">
-        <v>357.42</v>
+        <v>487.06</v>
       </c>
       <c r="E19" t="n">
-        <v>10.028</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>346.5</v>
+        <v>487.06</v>
       </c>
       <c r="D20" t="n">
-        <v>411.72</v>
+        <v>553.14</v>
       </c>
       <c r="E20" t="n">
-        <v>10.208</v>
+        <v>27.052</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>565.38</v>
+        <v>553.14</v>
       </c>
       <c r="D21" t="n">
-        <v>632.04</v>
+        <v>614.1</v>
       </c>
       <c r="E21" t="n">
-        <v>26.024</v>
+        <v>23.596</v>
       </c>
     </row>
     <row r="22">
@@ -846,207 +846,207 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>525.9299999999999</v>
+        <v>381.26</v>
       </c>
       <c r="D22" t="n">
-        <v>574.55</v>
+        <v>422.24</v>
       </c>
       <c r="E22" t="n">
-        <v>26.828</v>
+        <v>5.596</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>349.94</v>
+        <v>422.24</v>
       </c>
       <c r="D23" t="n">
-        <v>405.54</v>
+        <v>492.04</v>
       </c>
       <c r="E23" t="n">
-        <v>5.376</v>
+        <v>2.216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>357.42</v>
+        <v>614.1</v>
       </c>
       <c r="D24" t="n">
-        <v>415.68</v>
+        <v>668.38</v>
       </c>
       <c r="E24" t="n">
-        <v>6.332</v>
+        <v>20.788</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>632.04</v>
+        <v>309.86</v>
       </c>
       <c r="D25" t="n">
-        <v>702.04</v>
+        <v>352.66</v>
       </c>
       <c r="E25" t="n">
-        <v>23.604</v>
+        <v>8.484</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>415.68</v>
+        <v>259.88</v>
       </c>
       <c r="D26" t="n">
-        <v>461.64</v>
+        <v>326.38</v>
       </c>
       <c r="E26" t="n">
-        <v>3.356</v>
+        <v>12.532</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>411.72</v>
+        <v>492.04</v>
       </c>
       <c r="D27" t="n">
-        <v>479.92</v>
+        <v>559.61</v>
       </c>
       <c r="E27" t="n">
-        <v>6.488</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>479.92</v>
+        <v>559.61</v>
       </c>
       <c r="D28" t="n">
-        <v>542.52</v>
+        <v>638.87</v>
       </c>
       <c r="E28" t="n">
-        <v>1.868</v>
+        <v>26.724</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>542.52</v>
+        <v>352.66</v>
       </c>
       <c r="D29" t="n">
-        <v>615.78</v>
+        <v>393.72</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>5.508</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>405.54</v>
+        <v>326.38</v>
       </c>
       <c r="D30" t="n">
-        <v>474.66</v>
+        <v>364.02</v>
       </c>
       <c r="E30" t="n">
-        <v>1.064</v>
+        <v>9.407999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>474.66</v>
+        <v>364.02</v>
       </c>
       <c r="D31" t="n">
-        <v>574.03</v>
+        <v>428.92</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>5.028</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>360.22</v>
+        <v>393.72</v>
       </c>
       <c r="D32" t="n">
-        <v>414.18</v>
+        <v>432.38</v>
       </c>
       <c r="E32" t="n">
-        <v>2.672</v>
+        <v>2.772</v>
       </c>
     </row>
     <row r="33">
@@ -1055,22 +1055,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>615.78</v>
+        <v>428.92</v>
       </c>
       <c r="D33" t="n">
-        <v>682.04</v>
+        <v>494.86</v>
       </c>
       <c r="E33" t="n">
-        <v>27.024</v>
+        <v>1.544</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>414.18</v>
+        <v>494.86</v>
       </c>
       <c r="D34" t="n">
-        <v>510.34</v>
+        <v>583.27</v>
       </c>
       <c r="E34" t="n">
         <v>30</v>
@@ -1089,40 +1089,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>510.34</v>
+        <v>638.87</v>
       </c>
       <c r="D35" t="n">
-        <v>574.8200000000001</v>
+        <v>689.27</v>
       </c>
       <c r="E35" t="n">
-        <v>27.192</v>
+        <v>24.304</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>461.64</v>
+        <v>662.66</v>
       </c>
       <c r="D36" t="n">
-        <v>541.73</v>
+        <v>727.8200000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="37">
@@ -1131,36 +1131,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>541.73</v>
+        <v>373.8</v>
       </c>
       <c r="D37" t="n">
-        <v>597.53</v>
+        <v>427.2</v>
       </c>
       <c r="E37" t="n">
-        <v>25.62</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>574.8200000000001</v>
+        <v>432.38</v>
       </c>
       <c r="D38" t="n">
-        <v>604.98</v>
+        <v>518.54</v>
       </c>
       <c r="E38" t="n">
-        <v>24.816</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>574.03</v>
+        <v>518.54</v>
       </c>
       <c r="D39" t="n">
-        <v>622.87</v>
+        <v>584.26</v>
       </c>
       <c r="E39" t="n">
-        <v>27.296</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>597.53</v>
+        <v>427.2</v>
       </c>
       <c r="D40" t="n">
-        <v>658.21</v>
+        <v>489.8</v>
       </c>
       <c r="E40" t="n">
-        <v>22.652</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>604.98</v>
+        <v>489.8</v>
       </c>
       <c r="D41" t="n">
-        <v>635.14</v>
+        <v>540.6</v>
       </c>
       <c r="E41" t="n">
-        <v>22.44</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="42">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>682.04</v>
+        <v>583.27</v>
       </c>
       <c r="D42" t="n">
-        <v>735.28</v>
+        <v>625.25</v>
       </c>
       <c r="E42" t="n">
-        <v>24.32</v>
+        <v>27.492</v>
       </c>
     </row>
     <row r="43">
@@ -1245,17 +1245,55 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>pond41</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>540.6</v>
+      </c>
+      <c r="D43" t="n">
+        <v>608.34</v>
+      </c>
+      <c r="E43" t="n">
+        <v>22.916</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>pond52</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>658.21</v>
-      </c>
-      <c r="D43" t="n">
-        <v>701.01</v>
-      </c>
-      <c r="E43" t="n">
-        <v>20.012</v>
+      <c r="C44" t="n">
+        <v>584.26</v>
+      </c>
+      <c r="D44" t="n">
+        <v>637.0599999999999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>24.448</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>pond22</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>625.25</v>
+      </c>
+      <c r="D45" t="n">
+        <v>663.59</v>
+      </c>
+      <c r="E45" t="n">
+        <v>24.788</v>
       </c>
     </row>
   </sheetData>
